--- a/ECE373-GradeProjection.xlsx
+++ b/ECE373-GradeProjection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29b3b8207ead18/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\OneDrive\Documents\School\PSU\ECE373-EMBEDDED_OP_SYS&amp;DEV_DRVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A6B3FF-012A-40A9-B779-C423B5CB7BA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{02A6B3FF-012A-40A9-B779-C423B5CB7BA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A2B6CE42-CCDE-4332-A166-721BBEBF7348}"/>
   <bookViews>
-    <workbookView xWindow="16755" yWindow="4455" windowWidth="18270" windowHeight="11325" xr2:uid="{46691D49-D59D-446E-BC2F-6CF24A587C48}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="16035" windowHeight="11325" xr2:uid="{46691D49-D59D-446E-BC2F-6CF24A587C48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -129,7 +129,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,19 +447,19 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -487,7 +487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -511,15 +511,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -527,7 +527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -535,7 +535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -543,10 +543,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="C10">
         <f>C2</f>
@@ -557,7 +557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -576,13 +576,13 @@
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
         <f>B10/B11</f>
-        <v>0.89066666666666672</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:D12" si="0">C10/C11</f>
@@ -594,7 +594,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -611,13 +611,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
         <f>B13*B12</f>
-        <v>0.35626666666666673</v>
+        <v>0.37759999999999999</v>
       </c>
       <c r="C14" s="2">
         <f>C13*C12</f>
@@ -629,10 +629,10 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(B14:D14)</f>
-        <v>0.89751666666666674</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+        <v>0.91884999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>100</v>
       </c>
@@ -649,7 +649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>950</v>
       </c>

--- a/ECE373-GradeProjection.xlsx
+++ b/ECE373-GradeProjection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\OneDrive\Documents\School\PSU\ECE373-EMBEDDED_OP_SYS&amp;DEV_DRVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{02A6B3FF-012A-40A9-B779-C423B5CB7BA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A2B6CE42-CCDE-4332-A166-721BBEBF7348}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826986D4-4A96-443B-8086-35611C29131A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="16035" windowHeight="11325" xr2:uid="{46691D49-D59D-446E-BC2F-6CF24A587C48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{46691D49-D59D-446E-BC2F-6CF24A587C48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,19 +447,19 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -484,10 +484,10 @@
         <v>76.5</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -511,7 +511,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -519,7 +519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -527,26 +527,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="C10">
         <f>C2</f>
@@ -554,10 +554,10 @@
       </c>
       <c r="D10">
         <f>D2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -576,13 +576,13 @@
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
         <f>B10/B11</f>
-        <v>0.94399999999999995</v>
+        <v>0.79733333333333334</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:D12" si="0">C10/C11</f>
@@ -590,11 +590,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -611,13 +611,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
         <f>B13*B12</f>
-        <v>0.37759999999999999</v>
+        <v>0.31893333333333335</v>
       </c>
       <c r="C14" s="2">
         <f>C13*C12</f>
@@ -625,14 +625,14 @@
       </c>
       <c r="D14" s="2">
         <f>D13*D12</f>
-        <v>0.35</v>
+        <v>0.26249999999999996</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(B14:D14)</f>
-        <v>0.91884999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.35">
+        <v>0.77268333333333328</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>100</v>
       </c>
@@ -649,7 +649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>950</v>
       </c>
